--- a/アカウント登録_単体テスト.xlsx
+++ b/アカウント登録_単体テスト.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/tanntaitest/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/unit-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{1279D925-3AE7-4649-9250-D238FF145412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8514E17A-9E55-44C6-AFDD-B89D14D384A0}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{1279D925-3AE7-4649-9250-D238FF145412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EA1412A-7976-4797-8E0C-AE788B059228}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5130" yWindow="2580" windowWidth="16920" windowHeight="10340" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="2" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
   <sheets>
     <sheet name="アカウント登録" sheetId="1" r:id="rId1"/>
@@ -788,16 +788,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.XAMPPのMySQLを停止の状態にする</t>
-    <rPh sb="14" eb="16">
-      <t>テイシ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2.アカウント登録確認画面の「登録する」を押す</t>
     <rPh sb="7" eb="9">
       <t>トウロク</t>
@@ -1687,11 +1677,18 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>同じメールアドレスでは登録できない</t>
-    <rPh sb="0" eb="1">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
+    <t>1.ホスト名を変更する</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「すでに登録されているメールアドレスです]</t>
+    <rPh sb="4" eb="6">
       <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1789,7 +1786,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1801,9 +1798,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2315,7 +2309,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4E5A1AC5-72BD-4A39-A5BA-F2012FA95897}" name="テーブル35" displayName="テーブル35" ref="A41:I45" headerRowCount="0" totalsRowShown="0" headerRowDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4E5A1AC5-72BD-4A39-A5BA-F2012FA95897}" name="テーブル35" displayName="テーブル35" ref="A39:I43" headerRowCount="0" totalsRowShown="0" headerRowDxfId="21">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{B4073CD8-5F0E-40D9-8114-4C537B27C148}" name="項目番号" headerRowDxfId="20" dataDxfId="19"/>
     <tableColumn id="2" xr3:uid="{E9E099E9-0D35-44D7-93E4-4703AB560B91}" name="大項目" headerRowDxfId="18"/>
@@ -2667,8 +2661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
   <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94:XFD95"/>
+    <sheetView topLeftCell="E91" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2679,13 +2673,13 @@
     <col min="4" max="4" width="102.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="11.08203125" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="45.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>72</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -2696,7 +2690,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="9"/>
+      <c r="A2" s="8"/>
       <c r="B2" s="2" t="s">
         <v>75</v>
       </c>
@@ -2705,7 +2699,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="9"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="2" t="s">
         <v>77</v>
       </c>
@@ -2714,12 +2708,12 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="9"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C4" s="3">
-        <v>45990</v>
+        <v>46015</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2765,19 +2759,19 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G8" s="4">
-        <v>45992</v>
+      <c r="G8" s="3">
+        <v>46016</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -2803,19 +2797,19 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G10" s="4">
-        <v>45992</v>
+        <v>141</v>
+      </c>
+      <c r="G10" s="3">
+        <v>46016</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I10" s="2"/>
     </row>
@@ -2841,19 +2835,19 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G12" s="4">
-        <v>45992</v>
+        <v>142</v>
+      </c>
+      <c r="G12" s="3">
+        <v>46016</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I12" s="2"/>
     </row>
@@ -2882,16 +2876,16 @@
         <v>12</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="4">
-        <v>45992</v>
+      <c r="G14" s="3">
+        <v>46016</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I14" s="2"/>
     </row>
@@ -2920,16 +2914,16 @@
         <v>13</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="4">
-        <v>45992</v>
+      <c r="G16" s="3">
+        <v>46016</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I16" s="2"/>
     </row>
@@ -2955,19 +2949,19 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="4">
-        <v>45992</v>
+      <c r="G18" s="3">
+        <v>46016</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I18" s="2"/>
     </row>
@@ -2996,16 +2990,16 @@
         <v>14</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G20" s="4">
-        <v>45992</v>
+      <c r="G20" s="3">
+        <v>46016</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I20" s="2"/>
     </row>
@@ -3034,16 +3028,16 @@
         <v>15</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="4">
-        <v>45992</v>
+      <c r="G22" s="3">
+        <v>46016</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I22" s="2"/>
     </row>
@@ -3072,16 +3066,16 @@
         <v>19</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G24" s="4">
-        <v>45992</v>
+      <c r="G24" s="3">
+        <v>46016</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I24" s="2"/>
     </row>
@@ -3110,16 +3104,16 @@
         <v>16</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G26" s="4">
-        <v>45992</v>
+      <c r="G26" s="3">
+        <v>46016</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I26" s="2"/>
     </row>
@@ -3145,19 +3139,19 @@
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E28" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G28" s="4">
-        <v>45992</v>
+      <c r="G28" s="3">
+        <v>46016</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I28" s="2"/>
     </row>
@@ -3186,16 +3180,16 @@
         <v>17</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G30" s="4">
-        <v>45992</v>
+      <c r="G30" s="3">
+        <v>46016</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I30" s="2"/>
     </row>
@@ -3224,16 +3218,16 @@
         <v>18</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G32" s="4">
-        <v>45992</v>
+      <c r="G32" s="3">
+        <v>46016</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I32" s="2"/>
     </row>
@@ -3262,16 +3256,16 @@
         <v>20</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G34" s="4">
-        <v>45992</v>
+      <c r="G34" s="3">
+        <v>46016</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I34" s="2"/>
     </row>
@@ -3300,16 +3294,16 @@
         <v>29</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G36" s="4">
-        <v>45992</v>
+      <c r="G36" s="3">
+        <v>46016</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I36" s="2"/>
     </row>
@@ -3338,16 +3332,16 @@
         <v>21</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G38" s="4">
-        <v>45992</v>
+        <v>145</v>
+      </c>
+      <c r="G38" s="3">
+        <v>46016</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I38" s="2"/>
     </row>
@@ -3374,16 +3368,16 @@
         <v>22</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G40" s="4">
-        <v>45992</v>
+        <v>145</v>
+      </c>
+      <c r="G40" s="3">
+        <v>46016</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I40" s="2"/>
     </row>
@@ -3407,19 +3401,19 @@
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G42" s="4">
-        <v>45992</v>
+        <v>145</v>
+      </c>
+      <c r="G42" s="3">
+        <v>46016</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I42" s="2"/>
     </row>
@@ -3446,16 +3440,16 @@
         <v>25</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G44" s="4">
-        <v>45992</v>
+        <v>146</v>
+      </c>
+      <c r="G44" s="3">
+        <v>46016</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I44" s="2"/>
     </row>
@@ -3482,16 +3476,16 @@
         <v>23</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G46" s="4">
-        <v>45992</v>
+        <v>145</v>
+      </c>
+      <c r="G46" s="3">
+        <v>46016</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I46" s="2"/>
     </row>
@@ -3518,16 +3512,16 @@
         <v>26</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="G48" s="4">
-        <v>45992</v>
+        <v>144</v>
+      </c>
+      <c r="G48" s="3">
+        <v>46016</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I48" s="2"/>
     </row>
@@ -3551,19 +3545,19 @@
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G50" s="4">
-        <v>45992</v>
+        <v>123</v>
+      </c>
+      <c r="G50" s="3">
+        <v>46016</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I50" s="2"/>
     </row>
@@ -3590,16 +3584,16 @@
         <v>24</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G52" s="4">
-        <v>45992</v>
+        <v>145</v>
+      </c>
+      <c r="G52" s="3">
+        <v>46016</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I52" s="2"/>
     </row>
@@ -3626,16 +3620,16 @@
         <v>27</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G54" s="4">
-        <v>45992</v>
+        <v>146</v>
+      </c>
+      <c r="G54" s="3">
+        <v>46016</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I54" s="2"/>
     </row>
@@ -3667,11 +3661,11 @@
       <c r="F56" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G56" s="4">
-        <v>45992</v>
+      <c r="G56" s="3">
+        <v>46016</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I56" s="2"/>
     </row>
@@ -3703,11 +3697,11 @@
       <c r="F58" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G58" s="4">
-        <v>45992</v>
+      <c r="G58" s="3">
+        <v>46016</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I58" s="2"/>
     </row>
@@ -3731,19 +3725,19 @@
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G60" s="4">
-        <v>45992</v>
+      <c r="G60" s="3">
+        <v>46016</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I60" s="2"/>
     </row>
@@ -3753,7 +3747,7 @@
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
@@ -3777,11 +3771,11 @@
       <c r="F62" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G62" s="4">
-        <v>45992</v>
+      <c r="G62" s="3">
+        <v>46016</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I62" s="2"/>
     </row>
@@ -3805,7 +3799,7 @@
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>56</v>
@@ -3813,11 +3807,11 @@
       <c r="F64" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G64" s="4">
-        <v>45992</v>
+      <c r="G64" s="3">
+        <v>46016</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I64" s="2"/>
     </row>
@@ -3849,11 +3843,11 @@
       <c r="F66" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G66" s="4">
-        <v>45992</v>
+      <c r="G66" s="3">
+        <v>46016</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I66" s="2"/>
     </row>
@@ -3885,11 +3879,11 @@
       <c r="F68" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G68" s="4">
-        <v>45992</v>
+      <c r="G68" s="3">
+        <v>46016</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I68" s="2"/>
     </row>
@@ -3921,11 +3915,11 @@
       <c r="F70" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G70" s="4">
-        <v>45992</v>
+      <c r="G70" s="3">
+        <v>46016</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I70" s="2"/>
     </row>
@@ -3949,19 +3943,19 @@
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G72" s="4">
-        <v>45992</v>
+        <v>124</v>
+      </c>
+      <c r="G72" s="3">
+        <v>46016</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I72" s="2"/>
     </row>
@@ -3971,7 +3965,7 @@
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
@@ -3987,19 +3981,19 @@
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G74" s="4">
-        <v>45992</v>
+        <v>124</v>
+      </c>
+      <c r="G74" s="3">
+        <v>46016</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I74" s="2"/>
     </row>
@@ -4009,7 +4003,7 @@
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
@@ -4025,19 +4019,19 @@
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G76" s="4">
-        <v>45992</v>
+        <v>124</v>
+      </c>
+      <c r="G76" s="3">
+        <v>46016</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I76" s="2"/>
     </row>
@@ -4047,7 +4041,7 @@
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
@@ -4063,19 +4057,19 @@
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G78" s="4">
-        <v>45992</v>
+        <v>124</v>
+      </c>
+      <c r="G78" s="3">
+        <v>46016</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I78" s="2"/>
     </row>
@@ -4085,7 +4079,7 @@
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
@@ -4101,19 +4095,19 @@
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G80" s="4">
-        <v>45992</v>
+        <v>124</v>
+      </c>
+      <c r="G80" s="3">
+        <v>46016</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I80" s="2"/>
     </row>
@@ -4123,7 +4117,7 @@
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
@@ -4139,19 +4133,19 @@
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G82" s="4">
-        <v>45992</v>
+        <v>124</v>
+      </c>
+      <c r="G82" s="3">
+        <v>46016</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I82" s="2"/>
     </row>
@@ -4161,7 +4155,7 @@
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
@@ -4177,19 +4171,19 @@
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G84" s="4">
-        <v>45992</v>
+        <v>124</v>
+      </c>
+      <c r="G84" s="3">
+        <v>46016</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I84" s="2"/>
     </row>
@@ -4199,7 +4193,7 @@
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
@@ -4215,19 +4209,19 @@
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G86" s="4">
-        <v>45992</v>
+        <v>124</v>
+      </c>
+      <c r="G86" s="3">
+        <v>46016</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I86" s="2"/>
     </row>
@@ -4237,7 +4231,7 @@
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
@@ -4253,19 +4247,19 @@
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G88" s="4">
-        <v>45992</v>
+        <v>124</v>
+      </c>
+      <c r="G88" s="3">
+        <v>46016</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I88" s="2"/>
     </row>
@@ -4275,7 +4269,7 @@
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
@@ -4291,19 +4285,19 @@
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G90" s="4">
-        <v>45992</v>
+        <v>101</v>
+      </c>
+      <c r="G90" s="3">
+        <v>46016</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I90" s="2"/>
     </row>
@@ -4329,19 +4323,19 @@
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="G92" s="4">
-        <v>45992</v>
+        <v>129</v>
+      </c>
+      <c r="G92" s="3">
+        <v>46016</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I92" s="2"/>
     </row>
@@ -4367,19 +4361,19 @@
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F94" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E94" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G94" s="4">
-        <v>45992</v>
+      <c r="G94" s="3">
+        <v>46016</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I94" s="2"/>
     </row>
@@ -4389,7 +4383,7 @@
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
@@ -4411,10 +4405,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBAC509-E636-4BFE-BD39-D45C4E1E86E3}">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" zoomScale="79" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView topLeftCell="A28" zoomScale="79" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4425,13 +4419,13 @@
     <col min="4" max="4" width="102.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="11.08203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="45.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>72</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -4442,7 +4436,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="9"/>
+      <c r="A2" s="8"/>
       <c r="B2" s="2" t="s">
         <v>75</v>
       </c>
@@ -4451,7 +4445,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="9"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="2" t="s">
         <v>77</v>
       </c>
@@ -4460,12 +4454,12 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="9"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C4" s="3">
-        <v>45990</v>
+        <v>46015</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4517,11 +4511,11 @@
       <c r="F8" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G8" s="4">
-        <v>45992</v>
+      <c r="G8" s="3">
+        <v>46016</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -4555,11 +4549,11 @@
       <c r="F10" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="4">
-        <v>45992</v>
+      <c r="G10" s="3">
+        <v>46016</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I10" s="2"/>
     </row>
@@ -4585,7 +4579,7 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>61</v>
@@ -4593,11 +4587,11 @@
       <c r="F12" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="4">
-        <v>45992</v>
+      <c r="G12" s="3">
+        <v>46016</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I12" s="2"/>
     </row>
@@ -4631,11 +4625,11 @@
       <c r="F14" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="4">
-        <v>45992</v>
+      <c r="G14" s="3">
+        <v>46016</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I14" s="2"/>
     </row>
@@ -4669,11 +4663,11 @@
       <c r="F16" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G16" s="4">
-        <v>45992</v>
+      <c r="G16" s="3">
+        <v>46016</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I16" s="2"/>
     </row>
@@ -4707,11 +4701,11 @@
       <c r="F18" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="4">
-        <v>45992</v>
+      <c r="G18" s="3">
+        <v>46016</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I18" s="2"/>
     </row>
@@ -4745,11 +4739,11 @@
       <c r="F20" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G20" s="4">
-        <v>45992</v>
+      <c r="G20" s="3">
+        <v>46016</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I20" s="2"/>
     </row>
@@ -4775,7 +4769,7 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>61</v>
@@ -4783,11 +4777,11 @@
       <c r="F22" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G22" s="4">
-        <v>45992</v>
+      <c r="G22" s="3">
+        <v>46016</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I22" s="2"/>
     </row>
@@ -4821,11 +4815,11 @@
       <c r="F24" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="4">
-        <v>45992</v>
+      <c r="G24" s="3">
+        <v>46016</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I24" s="2"/>
     </row>
@@ -4859,11 +4853,11 @@
       <c r="F26" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G26" s="4">
-        <v>45992</v>
+      <c r="G26" s="3">
+        <v>46016</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I26" s="2"/>
     </row>
@@ -4897,11 +4891,11 @@
       <c r="F28" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G28" s="4">
-        <v>45992</v>
+      <c r="G28" s="3">
+        <v>46016</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I28" s="2"/>
     </row>
@@ -4935,11 +4929,11 @@
       <c r="F30" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G30" s="4">
-        <v>45992</v>
+      <c r="G30" s="3">
+        <v>46016</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I30" s="2"/>
     </row>
@@ -4973,11 +4967,11 @@
       <c r="F32" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G32" s="4">
-        <v>45992</v>
+      <c r="G32" s="3">
+        <v>46016</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I32" s="2"/>
     </row>
@@ -4996,26 +4990,26 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G34" s="4">
-        <v>45992</v>
+        <v>102</v>
+      </c>
+      <c r="G34" s="3">
+        <v>46016</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I34" s="2"/>
     </row>
@@ -5025,7 +5019,7 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -5034,26 +5028,26 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G36" s="4">
-        <v>45992</v>
+        <v>148</v>
+      </c>
+      <c r="G36" s="3">
+        <v>46016</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I36" s="2"/>
     </row>
@@ -5063,50 +5057,12 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="2">
-        <v>16</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G38" s="4">
-        <v>45992</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5122,10 +5078,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E7FCF0-B1A5-474A-B569-B8E95D831D94}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView zoomScale="79" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5136,13 +5092,13 @@
     <col min="4" max="4" width="102.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="11.08203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="45.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>72</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -5153,7 +5109,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="9"/>
+      <c r="A2" s="8"/>
       <c r="B2" s="2" t="s">
         <v>75</v>
       </c>
@@ -5162,7 +5118,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="9"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="2" t="s">
         <v>77</v>
       </c>
@@ -5171,12 +5127,12 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="9"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C4" s="3">
-        <v>45990</v>
+        <v>46015</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5220,19 +5176,19 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G9" s="4">
-        <v>45992</v>
+        <v>133</v>
+      </c>
+      <c r="G9" s="3">
+        <v>46016</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I9" s="2"/>
     </row>
@@ -5258,19 +5214,19 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G11" s="4">
-        <v>45992</v>
+        <v>134</v>
+      </c>
+      <c r="G11" s="3">
+        <v>46016</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -5296,19 +5252,19 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G13" s="4">
-        <v>45992</v>
+        <v>103</v>
+      </c>
+      <c r="G13" s="3">
+        <v>46016</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I13" s="2"/>
     </row>
@@ -5337,33 +5293,33 @@
         <v>51</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="4">
-        <v>45992</v>
+      <c r="G15" s="3">
+        <v>46016</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I15" s="5"/>
+        <v>143</v>
+      </c>
+      <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7" t="s">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="5"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="7"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2"/>
@@ -5371,12 +5327,12 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="8"/>
+      <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2">
@@ -5387,19 +5343,19 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G18" s="4">
-        <v>45992</v>
+        <v>156</v>
+      </c>
+      <c r="G18" s="3">
+        <v>46016</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I18" s="2"/>
     </row>
@@ -5422,7 +5378,7 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -5438,19 +5394,19 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G21" s="4">
-        <v>45992</v>
+      <c r="G21" s="3">
+        <v>46016</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I21" s="2"/>
     </row>
@@ -5460,12 +5416,50 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="2">
+        <v>7</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G23" s="3">
+        <v>46016</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
